--- a/inst/extdata/testDatawarn1.xlsx
+++ b/inst/extdata/testDatawarn1.xlsx
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,36 +216,18 @@
     </font>
     <font>
       <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color rgb="FFFFC000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFB89526"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0C16A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -535,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,24 +531,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,74 +582,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1078,7 +988,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -1092,89 +1002,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2015</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>145</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="47">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>109</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1183,11 +1093,11 @@
       <c r="C4" s="4">
         <v>2016</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1196,25 +1106,24 @@
       <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1223,26 +1132,26 @@
       <c r="C6" s="4">
         <v>2016</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>109</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1251,10 +1160,10 @@
       <c r="C7" s="4">
         <v>2016</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>109</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1264,26 +1173,26 @@
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="48">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>8</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="39" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1292,33 +1201,33 @@
       <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>149</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="39" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="13"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1327,70 +1236,70 @@
       <c r="C10" s="4">
         <v>2017</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="4">
         <v>2017</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>109</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1399,11 +1308,11 @@
       <c r="C13" s="2">
         <v>2017</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="2">
         <v>1455</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1412,31 +1321,31 @@
       <c r="H13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="43" t="s">
+      <c r="I14" s="19"/>
+      <c r="J14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1448,66 +1357,66 @@
       <c r="D15" s="2">
         <v>145</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="13" t="s">
+      <c r="I16" s="19"/>
+      <c r="J16" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>2015</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>149</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="24" t="s">
         <v>57</v>
       </c>
     </row>
